--- a/bulk-match-template-bilingual-english.xlsx
+++ b/bulk-match-template-bilingual-english.xlsx
@@ -441,13 +441,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>John_Smith</v>
+        <v>HVGN0BW0</v>
       </c>
       <c r="B2" t="str">
         <v/>
       </c>
       <c r="C2" t="str">
-        <v>Jane_Doe</v>
+        <v>KGLE38K4</v>
       </c>
       <c r="D2" t="str">
         <v/>
@@ -467,16 +467,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Mike_Johnson</v>
+        <v>MJST45X9</v>
       </c>
       <c r="B3" t="str">
-        <v>Sarah_Wilson</v>
+        <v>SWQR78Z2</v>
       </c>
       <c r="C3" t="str">
-        <v>Tom_Brown</v>
+        <v>TBPL91M5</v>
       </c>
       <c r="D3" t="str">
-        <v>Lisa_Chen</v>
+        <v>LCKM33Y8</v>
       </c>
       <c r="E3" t="str">
         <v>11</v>
@@ -493,13 +493,13 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>David_Lee</v>
+        <v>DLVW67N4</v>
       </c>
       <c r="B4" t="str">
         <v/>
       </c>
       <c r="C4" t="str">
-        <v>Emily_Davis</v>
+        <v>EDRX29H6</v>
       </c>
       <c r="D4" t="str">
         <v/>
@@ -519,16 +519,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Alex_Wang</v>
+        <v>AWJF82P1</v>
       </c>
       <c r="B5" t="str">
-        <v>Jennifer_Liu</v>
+        <v>JLMN56Q3</v>
       </c>
       <c r="C5" t="str">
-        <v>Robert_Zhang</v>
+        <v>RZQW74T7</v>
       </c>
       <c r="D5" t="str">
-        <v>Michelle_Kim</v>
+        <v>MKHY93V0</v>
       </c>
       <c r="E5" t="str">
         <v>11</v>
@@ -545,13 +545,13 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Chris_Taylor</v>
+        <v>CTBR48K5</v>
       </c>
       <c r="B6" t="str">
         <v/>
       </c>
       <c r="C6" t="str">
-        <v>Amanda_Rodriguez</v>
+        <v>ARLZ61F9</v>
       </c>
       <c r="D6" t="str">
         <v/>
@@ -598,32 +598,32 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>1. Fill in player names using their registered usernames or passport codes</v>
+        <v>Format Guidelines:</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2. For singles matches, leave the second player field empty</v>
+        <v>• Use player passport codes (e.g., HVGN0BW0, KGLE38K4)</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>3. Scores should be in format: 11, 9, 13, etc.</v>
+        <v>• Leave Team_1_Player_2 and Team_2_Player_2 empty for singles matches</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>4. Date format: YYYY-MM-DD (e.g., 2025-01-15)</v>
+        <v>• Use scores like: 11, 7, 15, 13 (games to points)</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>5. Gender Override: Leave empty for auto-detection, use M/F to override</v>
+        <v>• Date format: YYYY-MM-DD (e.g., 2025-01-15)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>6. Save as .xlsx file when uploading</v>
+        <v>• Gender_Override: M or F (optional, for cross-gender matches)</v>
       </c>
     </row>
     <row r="9">
@@ -633,47 +633,47 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Column Details:</v>
+        <v>Examples:</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>- Team_1_Player_1: Required - First player of team 1</v>
+        <v>Singles: HVGN0BW0 vs KGLE38K4, scores 11-7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>- Team_1_Player_2: Optional - Second player for doubles (leave empty for singles)</v>
+        <v>Doubles: MJST45X9/SWQR78Z2 vs TBPL91M5/LCKM33Y8, scores 11-9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>- Team_2_Player_1: Required - First player of team 2</v>
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>- Team_2_Player_2: Optional - Second player for doubles (leave empty for singles)</v>
+        <v>Validation will check:</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>- Team_1_Score: Required - Final score for team 1</v>
+        <v>• All passport codes exist in the system</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>- Team_2_Score: Required - Final score for team 2</v>
+        <v>• Valid score formats</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>- Date: Required - Match date in YYYY-MM-DD format</v>
+        <v>• No duplicate matches</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>- Gender_Override: Optional - M for all-male match, F for all-female match</v>
+        <v>• Proper date formatting</v>
       </c>
     </row>
   </sheetData>

--- a/bulk-match-template-bilingual-english.xlsx
+++ b/bulk-match-template-bilingual-english.xlsx
@@ -403,10 +403,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="32.83203125" customWidth="1"/>
-    <col min="2" max="2" width="32.83203125" customWidth="1"/>
-    <col min="3" max="3" width="32.83203125" customWidth="1"/>
-    <col min="4" max="4" width="32.83203125" customWidth="1"/>
+    <col min="1" max="1" width="40.83203125" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" customWidth="1"/>
+    <col min="3" max="3" width="40.83203125" customWidth="1"/>
+    <col min="4" max="4" width="40.83203125" customWidth="1"/>
     <col min="5" max="5" width="20.83203125" customWidth="1"/>
     <col min="6" max="6" width="20.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.83203125" customWidth="1"/>
@@ -415,16 +415,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Team_1_Player_1 / 第一队选手一</v>
+        <v>Team_1_Player_1_Passport / 第一队选手一护照码</v>
       </c>
       <c r="B1" t="str">
-        <v>Team_1_Player_2 / 第一队选手二</v>
+        <v>Team_1_Player_2_Passport / 第一队选手二护照码</v>
       </c>
       <c r="C1" t="str">
-        <v>Team_2_Player_1 / 第二队选手一</v>
+        <v>Team_2_Player_1_Passport / 第二队选手一护照码</v>
       </c>
       <c r="D1" t="str">
-        <v>Team_2_Player_2 / 第二队选手二</v>
+        <v>Team_2_Player_2_Passport / 第二队选手二护照码</v>
       </c>
       <c r="E1" t="str">
         <v>Team_1_Score / 第一队得分</v>
@@ -578,7 +578,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -603,12 +603,12 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>• Use player passport codes (e.g., HVGN0BW0, KGLE38K4)</v>
+        <v>• Use player passport codes (e.g., HVGN0BW0, KGLE38K4) - NOT names</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>• Leave Team_1_Player_2 and Team_2_Player_2 empty for singles matches</v>
+        <v>• Leave Team_1_Player_2_Passport and Team_2_Player_2_Passport empty for singles matches</v>
       </c>
     </row>
     <row r="6">
@@ -653,32 +653,57 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Validation will check:</v>
+        <v>IMPORTANT - Only Passport Codes:</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>• All passport codes exist in the system</v>
+        <v>• The system requires passport codes, not player names</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>• Valid score formats</v>
+        <v>• Each passport code is 8 characters (letters and numbers)</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>• No duplicate matches</v>
+        <v>• Find passport codes from player profiles or admin panel</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Validation will check:</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>• All passport codes exist in the system</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>• Valid score formats</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>• No duplicate matches</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
         <v>• Proper date formatting</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A23"/>
   </ignoredErrors>
 </worksheet>
 </file>